--- a/REGULAR/DIMARANAN, RODORA GARCIA.xlsx
+++ b/REGULAR/DIMARANAN, RODORA GARCIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF3A52-7F4B-4648-9922-9CCA775554AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="454">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1390,12 +1389,18 @@
   </si>
   <si>
     <t>HRMO</t>
+  </si>
+  <si>
+    <t>QL(12-0-0)</t>
+  </si>
+  <si>
+    <t>4/26-5/7/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2075,7 +2080,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2121,25 +2125,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K727" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K727" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2446,34 +2450,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K727"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A574" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A574" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K589" sqref="K589"/>
+      <selection pane="bottomLeft" activeCell="B590" sqref="B590"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2494,7 +2498,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2514,7 +2518,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2536,7 +2540,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2544,7 +2548,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2557,7 +2561,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -2574,7 +2578,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2618,7 +2622,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2628,12 +2632,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -2653,7 +2657,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>33619</v>
       </c>
@@ -2673,7 +2677,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>45</v>
       </c>
@@ -2693,7 +2697,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
@@ -2713,7 +2717,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>47</v>
       </c>
@@ -2733,7 +2737,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>48</v>
       </c>
@@ -2753,7 +2757,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>49</v>
       </c>
@@ -2773,7 +2777,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>50</v>
       </c>
@@ -2793,7 +2797,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>51</v>
       </c>
@@ -2813,7 +2817,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>52</v>
       </c>
@@ -2833,7 +2837,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>53</v>
       </c>
@@ -2853,7 +2857,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>54</v>
       </c>
@@ -2873,7 +2877,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>55</v>
       </c>
@@ -2893,7 +2897,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -2911,7 +2915,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>57</v>
       </c>
@@ -2937,7 +2941,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>45</v>
       </c>
@@ -2963,7 +2967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>46</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>47</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>48</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>49</v>
       </c>
@@ -3061,7 +3065,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>50</v>
       </c>
@@ -3081,7 +3085,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>51</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>52</v>
       </c>
@@ -3127,7 +3131,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>53</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>54</v>
       </c>
@@ -3173,7 +3177,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>55</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>58</v>
       </c>
@@ -3217,7 +3221,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>57</v>
       </c>
@@ -3237,7 +3241,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>45</v>
       </c>
@@ -3257,7 +3261,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>46</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>47</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>48</v>
       </c>
@@ -3329,7 +3333,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>49</v>
       </c>
@@ -3349,7 +3353,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>50</v>
       </c>
@@ -3373,7 +3377,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>104</v>
@@ -3382,7 +3386,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
@@ -3394,14 +3398,14 @@
       </c>
       <c r="I44" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="51" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>51</v>
       </c>
@@ -3421,7 +3425,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>52</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>53</v>
       </c>
@@ -3473,7 +3477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>104</v>
@@ -3482,7 +3486,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
@@ -3494,14 +3498,14 @@
       </c>
       <c r="I48" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>54</v>
       </c>
@@ -3521,7 +3525,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>55</v>
       </c>
@@ -3547,7 +3551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>59</v>
       </c>
@@ -3565,7 +3569,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>57</v>
       </c>
@@ -3591,7 +3595,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>45</v>
       </c>
@@ -3611,7 +3615,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>46</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>94</v>
@@ -3646,7 +3650,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
@@ -3658,14 +3662,14 @@
       </c>
       <c r="I55" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>47</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>91</v>
@@ -3702,7 +3706,7 @@
       </c>
       <c r="E57" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -3712,14 +3716,14 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="51" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>48</v>
       </c>
@@ -3739,7 +3743,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>49</v>
       </c>
@@ -3759,7 +3763,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>50</v>
       </c>
@@ -3779,7 +3783,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>51</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>52</v>
       </c>
@@ -3831,7 +3835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>53</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>54</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>55</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>60</v>
       </c>
@@ -3927,7 +3931,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>57</v>
       </c>
@@ -3947,7 +3951,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>45</v>
       </c>
@@ -3973,7 +3977,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>46</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>47</v>
       </c>
@@ -4019,7 +4023,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>48</v>
       </c>
@@ -4045,7 +4049,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>128</v>
@@ -4067,7 +4071,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>130</v>
@@ -4089,7 +4093,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>49</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>50</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>51</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>94</v>
@@ -4174,7 +4178,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -4186,14 +4190,14 @@
       </c>
       <c r="I77" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="51" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>52</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="52" t="s">
         <v>99</v>
@@ -4228,7 +4232,7 @@
       </c>
       <c r="E79" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -4238,14 +4242,14 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="51" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>53</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>97</v>
@@ -4280,7 +4284,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -4292,14 +4296,14 @@
       </c>
       <c r="I81" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>54</v>
       </c>
@@ -4325,7 +4329,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>133</v>
@@ -4334,7 +4338,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -4344,14 +4348,14 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="51" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
         <v>55</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>143</v>
@@ -4388,7 +4392,7 @@
       </c>
       <c r="E85" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
@@ -4398,12 +4402,12 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="51"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>61</v>
       </c>
@@ -4421,7 +4425,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>57</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>97</v>
@@ -4469,7 +4473,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>97</v>
@@ -4491,7 +4495,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>45</v>
       </c>
@@ -4515,7 +4519,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>46</v>
       </c>
@@ -4541,7 +4545,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -4552,7 +4556,7 @@
       </c>
       <c r="E92" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -4562,14 +4566,14 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J92" s="11"/>
       <c r="K92" s="51" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>94</v>
@@ -4578,7 +4582,7 @@
       <c r="D93" s="39"/>
       <c r="E93" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
@@ -4590,14 +4594,14 @@
       </c>
       <c r="I93" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="51" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>47</v>
       </c>
@@ -4617,7 +4621,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="51"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>48</v>
       </c>
@@ -4637,7 +4641,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>49</v>
       </c>
@@ -4657,7 +4661,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>50</v>
       </c>
@@ -4681,7 +4685,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
         <v>51</v>
       </c>
@@ -4701,7 +4705,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>52</v>
       </c>
@@ -4721,7 +4725,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>53</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="52" t="s">
         <v>99</v>
@@ -4769,7 +4773,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>54</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>55</v>
       </c>
@@ -4817,7 +4821,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>62</v>
       </c>
@@ -4835,7 +4839,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>57</v>
       </c>
@@ -4859,7 +4863,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
         <v>45</v>
       </c>
@@ -4885,7 +4889,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>46</v>
       </c>
@@ -4911,7 +4915,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>156</v>
@@ -4931,7 +4935,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="51"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>47</v>
       </c>
@@ -4955,7 +4959,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>48</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>133</v>
@@ -5001,7 +5005,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>159</v>
@@ -5021,7 +5025,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="51"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>49</v>
       </c>
@@ -5045,7 +5049,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
         <v>50</v>
       </c>
@@ -5069,7 +5073,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>51</v>
       </c>
@@ -5093,7 +5097,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
         <v>52</v>
       </c>
@@ -5117,7 +5121,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>97</v>
@@ -5139,7 +5143,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
         <v>53</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>166</v>
@@ -5185,7 +5189,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="51"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
         <v>54</v>
       </c>
@@ -5209,7 +5213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>167</v>
@@ -5229,7 +5233,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="51"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23" t="s">
         <v>55</v>
       </c>
@@ -5255,7 +5259,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>94</v>
@@ -5277,7 +5281,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>170</v>
@@ -5288,7 +5292,7 @@
       </c>
       <c r="E124" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.38030000000009</v>
+        <v>161.63030000000009</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -5298,12 +5302,12 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.815</v>
+        <v>194.065</v>
       </c>
       <c r="J124" s="11"/>
       <c r="K124" s="51"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>63</v>
       </c>
@@ -5321,7 +5325,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
         <v>57</v>
       </c>
@@ -5347,7 +5351,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>172</v>
@@ -5367,7 +5371,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="51"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
         <v>45</v>
       </c>
@@ -5391,7 +5395,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>94</v>
@@ -5413,7 +5417,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>174</v>
@@ -5433,7 +5437,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="51"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="s">
         <v>46</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>91</v>
@@ -5481,7 +5485,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>133</v>
@@ -5501,7 +5505,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>177</v>
@@ -5521,7 +5525,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="51"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>178</v>
@@ -5541,7 +5545,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="51"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
         <v>47</v>
       </c>
@@ -5567,7 +5571,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>180</v>
@@ -5587,7 +5591,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="51"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
         <v>48</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>182</v>
@@ -5633,7 +5637,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="51"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
         <v>49</v>
       </c>
@@ -5657,7 +5661,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>184</v>
@@ -5677,7 +5681,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="s">
         <v>50</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>172</v>
@@ -5723,7 +5727,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="51"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
         <v>51</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>104</v>
@@ -5771,7 +5775,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>188</v>
@@ -5791,7 +5795,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="51"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
         <v>52</v>
       </c>
@@ -5817,7 +5821,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>190</v>
@@ -5837,7 +5841,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="51"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="s">
         <v>53</v>
       </c>
@@ -5861,7 +5865,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>97</v>
@@ -5883,7 +5887,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>192</v>
@@ -5903,7 +5907,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
         <v>54</v>
       </c>
@@ -5929,7 +5933,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>94</v>
@@ -5951,7 +5955,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>195</v>
@@ -5971,7 +5975,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="51"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
         <v>55</v>
       </c>
@@ -5997,7 +6001,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>197</v>
@@ -6017,7 +6021,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="51"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>64</v>
       </c>
@@ -6035,7 +6039,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="s">
         <v>57</v>
       </c>
@@ -6059,7 +6063,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
         <v>45</v>
       </c>
@@ -6083,7 +6087,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
         <v>46</v>
       </c>
@@ -6109,7 +6113,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>133</v>
@@ -6129,7 +6133,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
         <v>47</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>133</v>
@@ -6173,7 +6177,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>204</v>
@@ -6195,7 +6199,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
         <v>48</v>
       </c>
@@ -6219,7 +6223,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="s">
         <v>49</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>207</v>
@@ -6265,7 +6269,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="51"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="s">
         <v>50</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>205</v>
@@ -6311,7 +6315,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="51"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23" t="s">
         <v>51</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>210</v>
@@ -6357,7 +6361,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="51"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
         <v>52</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>213</v>
@@ -6403,7 +6407,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="51"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="s">
         <v>53</v>
       </c>
@@ -6429,7 +6433,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>215</v>
@@ -6449,7 +6453,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="51"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23" t="s">
         <v>54</v>
       </c>
@@ -6475,7 +6479,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>217</v>
@@ -6495,7 +6499,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="51"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
         <v>55</v>
       </c>
@@ -6521,7 +6525,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>219</v>
@@ -6541,7 +6545,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="51"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>65</v>
       </c>
@@ -6559,7 +6563,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
         <v>57</v>
       </c>
@@ -6583,7 +6587,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
         <v>45</v>
       </c>
@@ -6609,7 +6613,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="15" t="s">
         <v>222</v>
@@ -6629,7 +6633,7 @@
       <c r="J183" s="12"/>
       <c r="K183" s="54"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
         <v>46</v>
       </c>
@@ -6655,7 +6659,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="15" t="s">
         <v>91</v>
@@ -6677,7 +6681,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="15" t="s">
         <v>225</v>
@@ -6697,7 +6701,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="55"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23" t="s">
         <v>47</v>
       </c>
@@ -6721,7 +6725,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23" t="s">
         <v>48</v>
       </c>
@@ -6745,7 +6749,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>160</v>
@@ -6765,7 +6769,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="51"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23" t="s">
         <v>49</v>
       </c>
@@ -6789,7 +6793,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>94</v>
@@ -6811,7 +6815,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23" t="s">
         <v>50</v>
       </c>
@@ -6837,7 +6841,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>234</v>
@@ -6857,7 +6861,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="51"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
         <v>51</v>
       </c>
@@ -6883,7 +6887,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>199</v>
@@ -6903,7 +6907,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="51"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>97</v>
@@ -6925,7 +6929,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23" t="s">
         <v>52</v>
       </c>
@@ -6951,7 +6955,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>227</v>
@@ -6971,7 +6975,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="51"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
         <v>53</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>244</v>
@@ -7017,7 +7021,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="51"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
         <v>54</v>
       </c>
@@ -7041,7 +7045,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>245</v>
@@ -7061,7 +7065,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="51"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23" t="s">
         <v>55</v>
       </c>
@@ -7087,7 +7091,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>172</v>
@@ -7107,7 +7111,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="53"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="48" t="s">
         <v>66</v>
       </c>
@@ -7125,7 +7129,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23" t="s">
         <v>57</v>
       </c>
@@ -7151,7 +7155,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>249</v>
@@ -7171,7 +7175,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="51"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23" t="s">
         <v>45</v>
       </c>
@@ -7195,7 +7199,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>252</v>
@@ -7215,7 +7219,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="51"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23" t="s">
         <v>46</v>
       </c>
@@ -7241,7 +7245,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>254</v>
@@ -7261,7 +7265,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="51"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23" t="s">
         <v>47</v>
       </c>
@@ -7285,7 +7289,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23" t="s">
         <v>48</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>91</v>
@@ -7333,7 +7337,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>94</v>
@@ -7355,7 +7359,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>94</v>
@@ -7377,7 +7381,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23" t="s">
         <v>49</v>
       </c>
@@ -7401,7 +7405,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>97</v>
@@ -7423,7 +7427,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>50</v>
       </c>
@@ -7443,7 +7447,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23" t="s">
         <v>51</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>108</v>
@@ -7491,7 +7495,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23" t="s">
         <v>52</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23" t="s">
         <v>53</v>
       </c>
@@ -7543,7 +7547,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23" t="s">
         <v>54</v>
       </c>
@@ -7567,7 +7571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
         <v>55</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="48" t="s">
         <v>67</v>
       </c>
@@ -7611,7 +7615,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23" t="s">
         <v>57</v>
       </c>
@@ -7637,7 +7641,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23" t="s">
         <v>45</v>
       </c>
@@ -7657,7 +7661,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
         <v>46</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23" t="s">
         <v>47</v>
       </c>
@@ -7709,7 +7713,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>133</v>
@@ -7727,7 +7731,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="51"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23" t="s">
         <v>48</v>
       </c>
@@ -7753,7 +7757,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>133</v>
@@ -7773,7 +7777,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23" t="s">
         <v>49</v>
       </c>
@@ -7799,7 +7803,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23" t="s">
         <v>50</v>
       </c>
@@ -7819,7 +7823,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23" t="s">
         <v>51</v>
       </c>
@@ -7839,7 +7843,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="51"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -7855,7 +7859,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="51"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23" t="s">
         <v>52</v>
       </c>
@@ -7881,7 +7885,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23" t="s">
         <v>53</v>
       </c>
@@ -7907,7 +7911,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
         <v>54</v>
       </c>
@@ -7931,7 +7935,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
         <v>55</v>
       </c>
@@ -7951,7 +7955,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="51"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="48" t="s">
         <v>68</v>
       </c>
@@ -7969,7 +7973,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23" t="s">
         <v>57</v>
       </c>
@@ -7993,7 +7997,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23" t="s">
         <v>45</v>
       </c>
@@ -8019,7 +8023,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23" t="s">
         <v>46</v>
       </c>
@@ -8043,7 +8047,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23" t="s">
         <v>47</v>
       </c>
@@ -8069,7 +8073,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>277</v>
@@ -8089,7 +8093,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="51"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23" t="s">
         <v>48</v>
       </c>
@@ -8113,7 +8117,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23" t="s">
         <v>49</v>
       </c>
@@ -8139,7 +8143,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>280</v>
@@ -8159,7 +8163,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="51"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
         <v>50</v>
       </c>
@@ -8183,7 +8187,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23" t="s">
         <v>51</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>97</v>
@@ -8231,7 +8235,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23" t="s">
         <v>52</v>
       </c>
@@ -8255,7 +8259,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="51"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>133</v>
@@ -8275,7 +8279,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>91</v>
@@ -8297,7 +8301,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>285</v>
@@ -8317,7 +8321,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="51"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23" t="s">
         <v>53</v>
       </c>
@@ -8343,7 +8347,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23" t="s">
         <v>54</v>
       </c>
@@ -8367,7 +8371,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>288</v>
@@ -8387,7 +8391,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="51"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>289</v>
@@ -8407,7 +8411,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="51"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>94</v>
@@ -8429,7 +8433,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23" t="s">
         <v>55</v>
       </c>
@@ -8453,7 +8457,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>290</v>
@@ -8475,7 +8479,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>292</v>
@@ -8495,7 +8499,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="51"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="48" t="s">
         <v>69</v>
       </c>
@@ -8513,7 +8517,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23" t="s">
         <v>57</v>
       </c>
@@ -8539,7 +8543,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>294</v>
@@ -8559,7 +8563,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="51"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23" t="s">
         <v>45</v>
       </c>
@@ -8585,7 +8589,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>133</v>
@@ -8605,7 +8609,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>295</v>
@@ -8625,7 +8629,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="51"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23" t="s">
         <v>46</v>
       </c>
@@ -8651,7 +8655,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>299</v>
@@ -8671,7 +8675,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="51"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
         <v>47</v>
       </c>
@@ -8695,7 +8699,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>290</v>
@@ -8717,7 +8721,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>301</v>
@@ -8737,7 +8741,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="51"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23" t="s">
         <v>48</v>
       </c>
@@ -8761,7 +8765,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>303</v>
@@ -8781,7 +8785,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="51"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23" t="s">
         <v>49</v>
       </c>
@@ -8805,7 +8809,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23" t="s">
         <v>50</v>
       </c>
@@ -8831,7 +8835,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>97</v>
@@ -8853,7 +8857,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>308</v>
@@ -8873,7 +8877,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="51"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23" t="s">
         <v>51</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>310</v>
@@ -8919,7 +8923,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="51"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
         <v>52</v>
       </c>
@@ -8945,7 +8949,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>313</v>
@@ -8965,7 +8969,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="51"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23" t="s">
         <v>53</v>
       </c>
@@ -8989,7 +8993,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23" t="s">
         <v>54</v>
       </c>
@@ -9015,7 +9019,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>97</v>
@@ -9037,7 +9041,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>317</v>
@@ -9057,7 +9061,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="51"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23" t="s">
         <v>55</v>
       </c>
@@ -9083,7 +9087,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>320</v>
@@ -9103,7 +9107,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="51"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="48" t="s">
         <v>70</v>
       </c>
@@ -9121,7 +9125,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23" t="s">
         <v>57</v>
       </c>
@@ -9145,7 +9149,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23" t="s">
         <v>45</v>
       </c>
@@ -9171,7 +9175,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
         <v>46</v>
       </c>
@@ -9197,7 +9201,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>104</v>
@@ -9219,7 +9223,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23" t="s">
         <v>47</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23" t="s">
         <v>48</v>
       </c>
@@ -9269,7 +9273,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23" t="s">
         <v>49</v>
       </c>
@@ -9289,7 +9293,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23" t="s">
         <v>50</v>
       </c>
@@ -9309,7 +9313,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23" t="s">
         <v>51</v>
       </c>
@@ -9329,7 +9333,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23" t="s">
         <v>52</v>
       </c>
@@ -9355,7 +9359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23" t="s">
         <v>53</v>
       </c>
@@ -9379,7 +9383,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23" t="s">
         <v>54</v>
       </c>
@@ -9399,7 +9403,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23" t="s">
         <v>55</v>
       </c>
@@ -9421,7 +9425,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="48" t="s">
         <v>71</v>
       </c>
@@ -9439,7 +9443,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23" t="s">
         <v>57</v>
       </c>
@@ -9459,7 +9463,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23" t="s">
         <v>45</v>
       </c>
@@ -9485,7 +9489,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23" t="s">
         <v>46</v>
       </c>
@@ -9511,7 +9515,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>133</v>
@@ -9531,7 +9535,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23" t="s">
         <v>47</v>
       </c>
@@ -9551,7 +9555,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23" t="s">
         <v>48</v>
       </c>
@@ -9571,7 +9575,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23" t="s">
         <v>49</v>
       </c>
@@ -9591,7 +9595,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23" t="s">
         <v>50</v>
       </c>
@@ -9617,7 +9621,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23" t="s">
         <v>51</v>
       </c>
@@ -9641,7 +9645,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23" t="s">
         <v>52</v>
       </c>
@@ -9667,7 +9671,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
         <v>53</v>
       </c>
@@ -9687,7 +9691,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23" t="s">
         <v>54</v>
       </c>
@@ -9707,7 +9711,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23" t="s">
         <v>55</v>
       </c>
@@ -9727,7 +9731,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="48" t="s">
         <v>72</v>
       </c>
@@ -9745,7 +9749,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23" t="s">
         <v>57</v>
       </c>
@@ -9765,7 +9769,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23" t="s">
         <v>45</v>
       </c>
@@ -9785,7 +9789,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23" t="s">
         <v>46</v>
       </c>
@@ -9811,7 +9815,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>133</v>
@@ -9831,7 +9835,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>211</v>
@@ -9853,7 +9857,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>336</v>
@@ -9875,7 +9879,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23" t="s">
         <v>47</v>
       </c>
@@ -9901,7 +9905,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
         <v>48</v>
       </c>
@@ -9927,7 +9931,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>133</v>
@@ -9947,7 +9951,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>94</v>
@@ -9969,7 +9973,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>340</v>
@@ -9989,7 +9993,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="51"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23" t="s">
         <v>49</v>
       </c>
@@ -10013,7 +10017,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23" t="s">
         <v>50</v>
       </c>
@@ -10033,7 +10037,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23" t="s">
         <v>51</v>
       </c>
@@ -10057,7 +10061,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23" t="s">
         <v>52</v>
       </c>
@@ -10083,7 +10087,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>205</v>
@@ -10103,7 +10107,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="51"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23" t="s">
         <v>53</v>
       </c>
@@ -10129,7 +10133,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23" t="s">
         <v>54</v>
       </c>
@@ -10153,7 +10157,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>346</v>
@@ -10175,7 +10179,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23" t="s">
         <v>55</v>
       </c>
@@ -10199,7 +10203,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="48" t="s">
         <v>73</v>
       </c>
@@ -10217,7 +10221,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23" t="s">
         <v>57</v>
       </c>
@@ -10243,7 +10247,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>320</v>
@@ -10263,7 +10267,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="51"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23" t="s">
         <v>45</v>
       </c>
@@ -10289,7 +10293,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>351</v>
@@ -10309,7 +10313,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="51"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23" t="s">
         <v>46</v>
       </c>
@@ -10335,7 +10339,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="15" t="s">
         <v>133</v>
@@ -10355,7 +10359,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="15" t="s">
         <v>353</v>
@@ -10375,7 +10379,7 @@
       <c r="J349" s="12"/>
       <c r="K349" s="55"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23" t="s">
         <v>47</v>
       </c>
@@ -10401,7 +10405,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="15" t="s">
         <v>278</v>
@@ -10421,7 +10425,7 @@
       <c r="J351" s="12"/>
       <c r="K351" s="55"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23" t="s">
         <v>48</v>
       </c>
@@ -10447,7 +10451,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>356</v>
@@ -10467,7 +10471,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="51"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23" t="s">
         <v>49</v>
       </c>
@@ -10487,7 +10491,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23" t="s">
         <v>50</v>
       </c>
@@ -10511,7 +10515,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
         <v>94</v>
@@ -10533,7 +10537,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>359</v>
@@ -10553,7 +10557,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="51"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23" t="s">
         <v>51</v>
       </c>
@@ -10577,7 +10581,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23" t="s">
         <v>52</v>
       </c>
@@ -10603,7 +10607,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>362</v>
@@ -10623,7 +10627,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="51"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23" t="s">
         <v>53</v>
       </c>
@@ -10647,7 +10651,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
         <v>54</v>
       </c>
@@ -10673,7 +10677,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>365</v>
@@ -10693,7 +10697,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="51"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23" t="s">
         <v>55</v>
       </c>
@@ -10717,7 +10721,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="48" t="s">
         <v>74</v>
       </c>
@@ -10735,7 +10739,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23" t="s">
         <v>57</v>
       </c>
@@ -10761,7 +10765,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>367</v>
@@ -10781,7 +10785,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="51"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23" t="s">
         <v>45</v>
       </c>
@@ -10805,7 +10809,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23" t="s">
         <v>46</v>
       </c>
@@ -10831,7 +10835,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>296</v>
@@ -10853,7 +10857,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>369</v>
@@ -10873,7 +10877,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="51"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23" t="s">
         <v>47</v>
       </c>
@@ -10899,7 +10903,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>371</v>
@@ -10919,7 +10923,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="51"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23" t="s">
         <v>48</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>133</v>
@@ -10965,7 +10969,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>94</v>
@@ -10987,7 +10991,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>371</v>
@@ -11007,7 +11011,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="51"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23" t="s">
         <v>49</v>
       </c>
@@ -11031,7 +11035,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23" t="s">
         <v>50</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23" t="s">
         <v>51</v>
       </c>
@@ -11081,7 +11085,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>376</v>
@@ -11101,7 +11105,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="51"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23" t="s">
         <v>52</v>
       </c>
@@ -11127,7 +11131,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>377</v>
@@ -11147,7 +11151,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="51"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
         <v>53</v>
       </c>
@@ -11175,7 +11179,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="15" t="s">
         <v>133</v>
@@ -11195,7 +11199,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="15" t="s">
         <v>378</v>
@@ -11215,7 +11219,7 @@
       <c r="J386" s="12"/>
       <c r="K386" s="55"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23" t="s">
         <v>54</v>
       </c>
@@ -11241,7 +11245,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="15" t="s">
         <v>365</v>
@@ -11261,7 +11265,7 @@
       <c r="J388" s="12"/>
       <c r="K388" s="55"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="15" t="s">
         <v>133</v>
@@ -11281,7 +11285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23" t="s">
         <v>55</v>
       </c>
@@ -11305,7 +11309,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
         <v>75</v>
       </c>
@@ -11323,7 +11327,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23" t="s">
         <v>57</v>
       </c>
@@ -11343,7 +11347,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23" t="s">
         <v>45</v>
       </c>
@@ -11367,7 +11371,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23" t="s">
         <v>46</v>
       </c>
@@ -11393,7 +11397,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>290</v>
@@ -11415,7 +11419,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23" t="s">
         <v>47</v>
       </c>
@@ -11439,7 +11443,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23" t="s">
         <v>48</v>
       </c>
@@ -11465,7 +11469,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23" t="s">
         <v>49</v>
       </c>
@@ -11485,7 +11489,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23" t="s">
         <v>50</v>
       </c>
@@ -11511,7 +11515,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23" t="s">
         <v>51</v>
       </c>
@@ -11531,7 +11535,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23" t="s">
         <v>52</v>
       </c>
@@ -11557,7 +11561,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>94</v>
@@ -11579,7 +11583,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23" t="s">
         <v>53</v>
       </c>
@@ -11603,7 +11607,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23" t="s">
         <v>54</v>
       </c>
@@ -11629,7 +11633,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23" t="s">
         <v>55</v>
       </c>
@@ -11653,7 +11657,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="48" t="s">
         <v>76</v>
       </c>
@@ -11671,7 +11675,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23" t="s">
         <v>57</v>
       </c>
@@ -11697,7 +11701,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23" t="s">
         <v>45</v>
       </c>
@@ -11717,7 +11721,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23" t="s">
         <v>46</v>
       </c>
@@ -11743,7 +11747,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>94</v>
@@ -11765,7 +11769,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>133</v>
@@ -11785,7 +11789,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23" t="s">
         <v>47</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>97</v>
@@ -11833,7 +11837,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23" t="s">
         <v>48</v>
       </c>
@@ -11859,7 +11863,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23" t="s">
         <v>49</v>
       </c>
@@ -11879,7 +11883,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23" t="s">
         <v>50</v>
       </c>
@@ -11905,7 +11909,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23" t="s">
         <v>51</v>
       </c>
@@ -11925,7 +11929,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23" t="s">
         <v>52</v>
       </c>
@@ -11951,7 +11955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23" t="s">
         <v>53</v>
       </c>
@@ -11971,7 +11975,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23" t="s">
         <v>54</v>
       </c>
@@ -11995,7 +11999,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23" t="s">
         <v>55</v>
       </c>
@@ -12021,7 +12025,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>133</v>
@@ -12041,7 +12045,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="48" t="s">
         <v>77</v>
       </c>
@@ -12059,7 +12063,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23" t="s">
         <v>57</v>
       </c>
@@ -12083,7 +12087,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23" t="s">
         <v>45</v>
       </c>
@@ -12103,7 +12107,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23" t="s">
         <v>46</v>
       </c>
@@ -12129,7 +12133,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23" t="s">
         <v>47</v>
       </c>
@@ -12155,7 +12159,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>133</v>
@@ -12175,7 +12179,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23" t="s">
         <v>48</v>
       </c>
@@ -12195,7 +12199,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23" t="s">
         <v>49</v>
       </c>
@@ -12219,7 +12223,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23" t="s">
         <v>50</v>
       </c>
@@ -12239,7 +12243,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23" t="s">
         <v>51</v>
       </c>
@@ -12259,7 +12263,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23" t="s">
         <v>52</v>
       </c>
@@ -12285,7 +12289,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>296</v>
@@ -12307,7 +12311,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23" t="s">
         <v>53</v>
       </c>
@@ -12333,7 +12337,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>133</v>
@@ -12353,7 +12357,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23" t="s">
         <v>54</v>
       </c>
@@ -12379,7 +12383,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>108</v>
@@ -12401,7 +12405,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
         <v>55</v>
       </c>
@@ -12425,7 +12429,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="48" t="s">
         <v>78</v>
       </c>
@@ -12443,7 +12447,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23" t="s">
         <v>57</v>
       </c>
@@ -12463,7 +12467,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23" t="s">
         <v>45</v>
       </c>
@@ -12489,7 +12493,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>290</v>
@@ -12509,7 +12513,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="51"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23" t="s">
         <v>46</v>
       </c>
@@ -12535,7 +12539,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23" t="s">
         <v>47</v>
       </c>
@@ -12555,7 +12559,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23" t="s">
         <v>48</v>
       </c>
@@ -12579,7 +12583,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>104</v>
@@ -12601,7 +12605,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23" t="s">
         <v>49</v>
       </c>
@@ -12621,7 +12625,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23" t="s">
         <v>50</v>
       </c>
@@ -12641,7 +12645,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
         <v>51</v>
       </c>
@@ -12661,7 +12665,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23" t="s">
         <v>52</v>
       </c>
@@ -12687,7 +12691,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23" t="s">
         <v>53</v>
       </c>
@@ -12713,7 +12717,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>296</v>
@@ -12735,7 +12739,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -12748,7 +12752,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="51"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23" t="s">
         <v>54</v>
       </c>
@@ -12763,7 +12767,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="51"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -12776,7 +12780,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="51"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23" t="s">
         <v>55</v>
       </c>
@@ -12796,7 +12800,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="48" t="s">
         <v>79</v>
       </c>
@@ -12814,7 +12818,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23" t="s">
         <v>57</v>
       </c>
@@ -12834,7 +12838,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23" t="s">
         <v>45</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
         <v>46</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23" t="s">
         <v>47</v>
       </c>
@@ -12912,7 +12916,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23" t="s">
         <v>48</v>
       </c>
@@ -12932,7 +12936,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23" t="s">
         <v>49</v>
       </c>
@@ -12956,7 +12960,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23" t="s">
         <v>50</v>
       </c>
@@ -12976,7 +12980,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23" t="s">
         <v>51</v>
       </c>
@@ -12996,7 +13000,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23" t="s">
         <v>52</v>
       </c>
@@ -13022,7 +13026,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>97</v>
@@ -13044,7 +13048,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23" t="s">
         <v>53</v>
       </c>
@@ -13070,7 +13074,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23" t="s">
         <v>54</v>
       </c>
@@ -13096,7 +13100,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
         <v>91</v>
@@ -13118,7 +13122,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
         <v>55</v>
       </c>
@@ -13138,7 +13142,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="48" t="s">
         <v>80</v>
       </c>
@@ -13156,7 +13160,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23" t="s">
         <v>57</v>
       </c>
@@ -13176,7 +13180,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23" t="s">
         <v>45</v>
       </c>
@@ -13202,7 +13206,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23" t="s">
         <v>46</v>
       </c>
@@ -13222,7 +13226,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23" t="s">
         <v>47</v>
       </c>
@@ -13246,7 +13250,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23" t="s">
         <v>48</v>
       </c>
@@ -13266,7 +13270,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23" t="s">
         <v>49</v>
       </c>
@@ -13286,7 +13290,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23" t="s">
         <v>50</v>
       </c>
@@ -13306,7 +13310,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23" t="s">
         <v>51</v>
       </c>
@@ -13326,7 +13330,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23" t="s">
         <v>52</v>
       </c>
@@ -13352,7 +13356,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
         <v>53</v>
       </c>
@@ -13376,7 +13380,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23"/>
       <c r="B484" s="20" t="s">
         <v>94</v>
@@ -13398,7 +13402,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
         <v>91</v>
@@ -13420,7 +13424,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>133</v>
@@ -13440,7 +13444,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23" t="s">
         <v>54</v>
       </c>
@@ -13466,7 +13470,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23" t="s">
         <v>55</v>
       </c>
@@ -13486,7 +13490,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="48" t="s">
         <v>81</v>
       </c>
@@ -13504,7 +13508,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23" t="s">
         <v>57</v>
       </c>
@@ -13530,7 +13534,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23" t="s">
         <v>45</v>
       </c>
@@ -13550,7 +13554,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23" t="s">
         <v>46</v>
       </c>
@@ -13576,7 +13580,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23" t="s">
         <v>47</v>
       </c>
@@ -13600,7 +13604,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
         <v>94</v>
@@ -13622,7 +13626,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>108</v>
@@ -13644,7 +13648,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23" t="s">
         <v>48</v>
       </c>
@@ -13664,7 +13668,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23" t="s">
         <v>49</v>
       </c>
@@ -13684,7 +13688,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23" t="s">
         <v>50</v>
       </c>
@@ -13704,7 +13708,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23" t="s">
         <v>51</v>
       </c>
@@ -13724,7 +13728,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23" t="s">
         <v>52</v>
       </c>
@@ -13750,7 +13754,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23"/>
       <c r="B501" s="20" t="s">
         <v>265</v>
@@ -13770,7 +13774,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>108</v>
@@ -13792,7 +13796,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23"/>
       <c r="B503" s="20" t="s">
         <v>94</v>
@@ -13814,7 +13818,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23" t="s">
         <v>53</v>
       </c>
@@ -13840,7 +13844,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
         <v>54</v>
       </c>
@@ -13860,7 +13864,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23" t="s">
         <v>55</v>
       </c>
@@ -13884,7 +13888,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="48" t="s">
         <v>82</v>
       </c>
@@ -13902,7 +13906,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23" t="s">
         <v>57</v>
       </c>
@@ -13922,7 +13926,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23" t="s">
         <v>45</v>
       </c>
@@ -13942,7 +13946,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23" t="s">
         <v>46</v>
       </c>
@@ -13962,7 +13966,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23" t="s">
         <v>47</v>
       </c>
@@ -13982,7 +13986,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23" t="s">
         <v>48</v>
       </c>
@@ -14002,7 +14006,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23" t="s">
         <v>49</v>
       </c>
@@ -14022,7 +14026,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23" t="s">
         <v>50</v>
       </c>
@@ -14048,7 +14052,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23" t="s">
         <v>51</v>
       </c>
@@ -14068,7 +14072,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
         <v>52</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>406</v>
@@ -14114,7 +14118,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23" t="s">
         <v>53</v>
       </c>
@@ -14140,7 +14144,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23" t="s">
         <v>54</v>
       </c>
@@ -14166,7 +14170,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23"/>
       <c r="B520" s="20" t="s">
         <v>91</v>
@@ -14188,7 +14192,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23" t="s">
         <v>55</v>
       </c>
@@ -14208,7 +14212,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="48" t="s">
         <v>83</v>
       </c>
@@ -14226,7 +14230,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23" t="s">
         <v>57</v>
       </c>
@@ -14252,7 +14256,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23" t="s">
         <v>45</v>
       </c>
@@ -14272,7 +14276,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23" t="s">
         <v>46</v>
       </c>
@@ -14298,7 +14302,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23" t="s">
         <v>47</v>
       </c>
@@ -14318,7 +14322,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23" t="s">
         <v>48</v>
       </c>
@@ -14338,7 +14342,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23" t="s">
         <v>49</v>
       </c>
@@ -14358,7 +14362,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23" t="s">
         <v>50</v>
       </c>
@@ -14378,7 +14382,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23" t="s">
         <v>51</v>
       </c>
@@ -14398,7 +14402,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23" t="s">
         <v>52</v>
       </c>
@@ -14418,7 +14422,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23" t="s">
         <v>53</v>
       </c>
@@ -14438,7 +14442,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23" t="s">
         <v>54</v>
       </c>
@@ -14462,7 +14466,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>89</v>
@@ -14484,7 +14488,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
         <v>265</v>
@@ -14504,7 +14508,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="23" t="s">
         <v>55</v>
       </c>
@@ -14524,7 +14528,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="48" t="s">
         <v>84</v>
       </c>
@@ -14542,7 +14546,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="23" t="s">
         <v>57</v>
       </c>
@@ -14562,7 +14566,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="23" t="s">
         <v>45</v>
       </c>
@@ -14582,7 +14586,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23" t="s">
         <v>46</v>
       </c>
@@ -14602,7 +14606,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23" t="s">
         <v>47</v>
       </c>
@@ -14622,7 +14626,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23" t="s">
         <v>48</v>
       </c>
@@ -14642,7 +14646,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23" t="s">
         <v>49</v>
       </c>
@@ -14668,7 +14672,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23" t="s">
         <v>50</v>
       </c>
@@ -14688,7 +14692,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23" t="s">
         <v>51</v>
       </c>
@@ -14708,7 +14712,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23" t="s">
         <v>52</v>
       </c>
@@ -14728,7 +14732,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="23" t="s">
         <v>53</v>
       </c>
@@ -14748,7 +14752,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23" t="s">
         <v>54</v>
       </c>
@@ -14768,7 +14772,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="23" t="s">
         <v>55</v>
       </c>
@@ -14794,7 +14798,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="23"/>
       <c r="B550" s="20" t="s">
         <v>406</v>
@@ -14814,7 +14818,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="48" t="s">
         <v>85</v>
       </c>
@@ -14834,7 +14838,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="23" t="s">
         <v>57</v>
       </c>
@@ -14854,7 +14858,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23" t="s">
         <v>45</v>
       </c>
@@ -14874,7 +14878,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23" t="s">
         <v>46</v>
       </c>
@@ -14894,7 +14898,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23" t="s">
         <v>47</v>
       </c>
@@ -14914,7 +14918,7 @@
       <c r="J555" s="12"/>
       <c r="K555" s="15"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="23" t="s">
         <v>48</v>
       </c>
@@ -14940,7 +14944,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23" t="s">
         <v>49</v>
       </c>
@@ -14960,7 +14964,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="23" t="s">
         <v>50</v>
       </c>
@@ -14980,7 +14984,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23" t="s">
         <v>51</v>
       </c>
@@ -15000,7 +15004,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23" t="s">
         <v>52</v>
       </c>
@@ -15020,7 +15024,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23" t="s">
         <v>53</v>
       </c>
@@ -15046,7 +15050,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="23"/>
       <c r="B562" s="20" t="s">
         <v>108</v>
@@ -15068,7 +15072,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>133</v>
@@ -15088,7 +15092,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23" t="s">
         <v>54</v>
       </c>
@@ -15114,7 +15118,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23"/>
       <c r="B565" s="20" t="s">
         <v>265</v>
@@ -15134,7 +15138,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="23" t="s">
         <v>55</v>
       </c>
@@ -15154,7 +15158,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="48" t="s">
         <v>86</v>
       </c>
@@ -15172,7 +15176,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="23" t="s">
         <v>57</v>
       </c>
@@ -15198,7 +15202,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="23" t="s">
         <v>45</v>
       </c>
@@ -15224,7 +15228,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="23" t="s">
         <v>46</v>
       </c>
@@ -15248,7 +15252,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="23" t="s">
         <v>47</v>
       </c>
@@ -15274,7 +15278,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="23"/>
       <c r="B572" s="20" t="s">
         <v>94</v>
@@ -15294,7 +15298,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="51"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="23"/>
       <c r="B573" s="20" t="s">
         <v>94</v>
@@ -15316,7 +15320,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="23" t="s">
         <v>48</v>
       </c>
@@ -15336,7 +15340,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="23" t="s">
         <v>49</v>
       </c>
@@ -15362,7 +15366,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="23" t="s">
         <v>50</v>
       </c>
@@ -15388,7 +15392,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="23" t="s">
         <v>51</v>
       </c>
@@ -15414,7 +15418,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23" t="s">
         <v>52</v>
       </c>
@@ -15440,7 +15444,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="23" t="s">
         <v>53</v>
       </c>
@@ -15466,7 +15470,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="23"/>
       <c r="B580" s="20" t="s">
         <v>107</v>
@@ -15488,7 +15492,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="23" t="s">
         <v>54</v>
       </c>
@@ -15512,7 +15516,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="23" t="s">
         <v>55</v>
       </c>
@@ -15536,7 +15540,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>108</v>
@@ -15558,7 +15562,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="48" t="s">
         <v>447</v>
       </c>
@@ -15576,7 +15580,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="41">
         <v>44927</v>
       </c>
@@ -15600,7 +15604,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>44958</v>
       </c>
@@ -15626,7 +15630,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>94</v>
@@ -15648,7 +15652,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>44986</v>
       </c>
@@ -15674,25 +15678,31 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45017</v>
       </c>
-      <c r="B589" s="20"/>
-      <c r="C589" s="13"/>
+      <c r="B589" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C589" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D589" s="39"/>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G589" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20"/>
-    </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K589" s="20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>45047</v>
       </c>
@@ -15710,7 +15720,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>45078</v>
       </c>
@@ -15728,7 +15738,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>45108</v>
       </c>
@@ -15746,7 +15756,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>45139</v>
       </c>
@@ -15764,7 +15774,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>45170</v>
       </c>
@@ -15782,7 +15792,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>45200</v>
       </c>
@@ -15800,7 +15810,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>45231</v>
       </c>
@@ -15818,7 +15828,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>45261</v>
       </c>
@@ -15836,7 +15846,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>45292</v>
       </c>
@@ -15854,7 +15864,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>45323</v>
       </c>
@@ -15872,7 +15882,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>45352</v>
       </c>
@@ -15890,7 +15900,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>45383</v>
       </c>
@@ -15908,7 +15918,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>45413</v>
       </c>
@@ -15926,7 +15936,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>45444</v>
       </c>
@@ -15944,7 +15954,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>45474</v>
       </c>
@@ -15962,7 +15972,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>45505</v>
       </c>
@@ -15980,7 +15990,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>45536</v>
       </c>
@@ -15998,7 +16008,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>45566</v>
       </c>
@@ -16016,7 +16026,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>45597</v>
       </c>
@@ -16034,7 +16044,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>45627</v>
       </c>
@@ -16052,7 +16062,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>45658</v>
       </c>
@@ -16070,7 +16080,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>45689</v>
       </c>
@@ -16088,7 +16098,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>45717</v>
       </c>
@@ -16106,7 +16116,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>45748</v>
       </c>
@@ -16124,7 +16134,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>45778</v>
       </c>
@@ -16142,7 +16152,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>45809</v>
       </c>
@@ -16160,7 +16170,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>45839</v>
       </c>
@@ -16178,7 +16188,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>45870</v>
       </c>
@@ -16196,7 +16206,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>45901</v>
       </c>
@@ -16214,7 +16224,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>45931</v>
       </c>
@@ -16232,7 +16242,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>45962</v>
       </c>
@@ -16250,7 +16260,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>45992</v>
       </c>
@@ -16268,7 +16278,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>46023</v>
       </c>
@@ -16286,7 +16296,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>46054</v>
       </c>
@@ -16304,7 +16314,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>46082</v>
       </c>
@@ -16322,7 +16332,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>46113</v>
       </c>
@@ -16340,7 +16350,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>46143</v>
       </c>
@@ -16358,7 +16368,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>46174</v>
       </c>
@@ -16376,7 +16386,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>46204</v>
       </c>
@@ -16394,7 +16404,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>46235</v>
       </c>
@@ -16412,7 +16422,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>46266</v>
       </c>
@@ -16430,7 +16440,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>46296</v>
       </c>
@@ -16448,7 +16458,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>46327</v>
       </c>
@@ -16466,7 +16476,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>46357</v>
       </c>
@@ -16484,7 +16494,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>46388</v>
       </c>
@@ -16502,7 +16512,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>46419</v>
       </c>
@@ -16520,7 +16530,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>46447</v>
       </c>
@@ -16538,7 +16548,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>46478</v>
       </c>
@@ -16556,7 +16566,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>46508</v>
       </c>
@@ -16574,7 +16584,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>46539</v>
       </c>
@@ -16592,7 +16602,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>46569</v>
       </c>
@@ -16610,7 +16620,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>46600</v>
       </c>
@@ -16628,7 +16638,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>46631</v>
       </c>
@@ -16646,7 +16656,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>46661</v>
       </c>
@@ -16664,7 +16674,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>46692</v>
       </c>
@@ -16682,7 +16692,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>46722</v>
       </c>
@@ -16700,7 +16710,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>46753</v>
       </c>
@@ -16718,7 +16728,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>46784</v>
       </c>
@@ -16736,7 +16746,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>46813</v>
       </c>
@@ -16754,7 +16764,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>46844</v>
       </c>
@@ -16772,7 +16782,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>46874</v>
       </c>
@@ -16790,7 +16800,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>46905</v>
       </c>
@@ -16808,7 +16818,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>46935</v>
       </c>
@@ -16826,7 +16836,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>46966</v>
       </c>
@@ -16844,7 +16854,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>46997</v>
       </c>
@@ -16862,7 +16872,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>47027</v>
       </c>
@@ -16880,7 +16890,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>47058</v>
       </c>
@@ -16898,7 +16908,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>47088</v>
       </c>
@@ -16916,7 +16926,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>47119</v>
       </c>
@@ -16934,7 +16944,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>47150</v>
       </c>
@@ -16952,7 +16962,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>47178</v>
       </c>
@@ -16970,7 +16980,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16986,7 +16996,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17002,7 +17012,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17018,7 +17028,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17034,7 +17044,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17050,7 +17060,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17066,7 +17076,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17082,7 +17092,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17098,7 +17108,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17114,7 +17124,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17130,7 +17140,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17146,7 +17156,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17162,7 +17172,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17178,7 +17188,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17194,7 +17204,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17210,7 +17220,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17226,7 +17236,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17242,7 +17252,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17258,7 +17268,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17274,7 +17284,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17290,7 +17300,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17306,7 +17316,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17322,7 +17332,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17338,7 +17348,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17354,7 +17364,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17370,7 +17380,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17386,7 +17396,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17402,7 +17412,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17418,7 +17428,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17434,7 +17444,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17450,7 +17460,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17466,7 +17476,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17482,7 +17492,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17498,7 +17508,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17514,7 +17524,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17530,7 +17540,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17546,7 +17556,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17562,7 +17572,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17578,7 +17588,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17594,7 +17604,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17610,7 +17620,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17626,7 +17636,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17642,7 +17652,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17658,7 +17668,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17674,7 +17684,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17690,7 +17700,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -17706,7 +17716,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -17722,7 +17732,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -17738,7 +17748,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -17754,7 +17764,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -17770,7 +17780,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -17786,7 +17796,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -17802,7 +17812,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -17818,7 +17828,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -17834,7 +17844,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -17850,7 +17860,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -17866,7 +17876,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -17882,7 +17892,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -17898,7 +17908,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -17914,7 +17924,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -17930,7 +17940,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -17946,7 +17956,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -17962,7 +17972,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -17978,7 +17988,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -17994,7 +18004,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18010,7 +18020,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18026,7 +18036,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="41"/>
       <c r="B727" s="15"/>
       <c r="C727" s="42"/>
@@ -18058,10 +18068,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18084,28 +18094,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -18118,7 +18128,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18147,7 +18157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18169,7 +18179,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -18184,10 +18194,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18207,7 +18217,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18233,7 +18243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18259,7 +18269,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18285,7 +18295,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18311,7 +18321,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18337,7 +18347,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18363,7 +18373,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18389,7 +18399,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18415,7 +18425,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18435,7 +18445,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18455,7 +18465,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18475,7 +18485,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18496,7 +18506,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18517,7 +18527,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18538,7 +18548,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18559,7 +18569,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18580,7 +18590,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18601,7 +18611,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18622,7 +18632,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18643,7 +18653,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18664,7 +18674,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18685,7 +18695,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18706,7 +18716,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18727,7 +18737,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18748,7 +18758,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18769,7 +18779,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18790,7 +18800,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18811,7 +18821,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18832,7 +18842,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18853,7 +18863,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18874,7 +18884,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18895,7 +18905,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18904,7 +18914,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18913,7 +18923,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18922,7 +18932,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18931,7 +18941,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18940,7 +18950,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18949,7 +18959,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18958,7 +18968,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18967,7 +18977,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18976,7 +18986,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18985,7 +18995,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18994,7 +19004,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19003,7 +19013,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19012,7 +19022,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19021,7 +19031,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19030,7 +19040,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19039,7 +19049,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19048,7 +19058,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19057,7 +19067,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19066,7 +19076,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19075,7 +19085,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19084,7 +19094,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19093,7 +19103,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19102,7 +19112,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19111,7 +19121,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19120,7 +19130,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19129,7 +19139,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19138,7 +19148,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19147,7 +19157,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19156,7 +19166,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/DIMARANAN, RODORA GARCIA.xlsx
+++ b/REGULAR/DIMARANAN, RODORA GARCIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F7DF1E-EA7C-4E2B-B7CE-8DB54ED37A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="455">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1395,12 +1396,15 @@
   </si>
   <si>
     <t>4/26-5/7/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2108,7 +2112,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2125,25 +2129,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K727" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K727" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2450,34 +2454,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K727"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A574" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B590" sqref="B590"/>
+      <pane ySplit="3696" topLeftCell="A437" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F442" sqref="F442"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2502,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2518,7 +2522,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2540,7 +2544,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2548,7 +2552,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2561,7 +2565,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -2578,7 +2582,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2637,7 +2641,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -2657,7 +2661,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>33619</v>
       </c>
@@ -2677,7 +2681,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>45</v>
       </c>
@@ -2697,7 +2701,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
@@ -2717,7 +2721,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>47</v>
       </c>
@@ -2737,7 +2741,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>48</v>
       </c>
@@ -2757,7 +2761,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>49</v>
       </c>
@@ -2777,7 +2781,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>50</v>
       </c>
@@ -2797,7 +2801,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>51</v>
       </c>
@@ -2817,7 +2821,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>52</v>
       </c>
@@ -2837,7 +2841,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>53</v>
       </c>
@@ -2857,7 +2861,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>54</v>
       </c>
@@ -2877,7 +2881,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>55</v>
       </c>
@@ -2897,7 +2901,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -2915,7 +2919,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>57</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>45</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>46</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>47</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>48</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>49</v>
       </c>
@@ -3065,7 +3069,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>50</v>
       </c>
@@ -3085,7 +3089,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>51</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>52</v>
       </c>
@@ -3131,7 +3135,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>53</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>54</v>
       </c>
@@ -3177,7 +3181,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>55</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>58</v>
       </c>
@@ -3221,7 +3225,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>57</v>
       </c>
@@ -3241,7 +3245,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>45</v>
       </c>
@@ -3261,7 +3265,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>46</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>47</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>48</v>
       </c>
@@ -3333,7 +3337,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>49</v>
       </c>
@@ -3353,7 +3357,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>50</v>
       </c>
@@ -3377,7 +3381,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>104</v>
@@ -3405,7 +3409,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
         <v>51</v>
       </c>
@@ -3425,7 +3429,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>52</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
         <v>53</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>104</v>
@@ -3505,7 +3509,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
         <v>54</v>
       </c>
@@ -3525,7 +3529,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>55</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
         <v>59</v>
       </c>
@@ -3569,7 +3573,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>57</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
         <v>45</v>
       </c>
@@ -3615,7 +3619,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>46</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>94</v>
@@ -3669,7 +3673,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>47</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>91</v>
@@ -3723,7 +3727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>48</v>
       </c>
@@ -3743,7 +3747,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>49</v>
       </c>
@@ -3763,7 +3767,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
         <v>50</v>
       </c>
@@ -3783,7 +3787,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
         <v>51</v>
       </c>
@@ -3809,7 +3813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
         <v>52</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>53</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
         <v>54</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
         <v>55</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>60</v>
       </c>
@@ -3931,7 +3935,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
         <v>57</v>
       </c>
@@ -3951,7 +3955,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>45</v>
       </c>
@@ -3977,7 +3981,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
         <v>46</v>
       </c>
@@ -4003,7 +4007,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23" t="s">
         <v>47</v>
       </c>
@@ -4023,7 +4027,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
         <v>48</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>128</v>
@@ -4071,7 +4075,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>130</v>
@@ -4093,7 +4097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
         <v>49</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>50</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>51</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>94</v>
@@ -4197,7 +4201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>52</v>
       </c>
@@ -4221,7 +4225,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="52" t="s">
         <v>99</v>
@@ -4249,7 +4253,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
         <v>53</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>97</v>
@@ -4303,7 +4307,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>54</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>133</v>
@@ -4355,7 +4359,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
         <v>55</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>143</v>
@@ -4407,7 +4411,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="51"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>61</v>
       </c>
@@ -4425,7 +4429,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23" t="s">
         <v>57</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>97</v>
@@ -4473,7 +4477,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>97</v>
@@ -4495,7 +4499,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23" t="s">
         <v>45</v>
       </c>
@@ -4519,7 +4523,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="s">
         <v>46</v>
       </c>
@@ -4545,7 +4549,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -4573,7 +4577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>94</v>
@@ -4601,7 +4605,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23" t="s">
         <v>47</v>
       </c>
@@ -4621,7 +4625,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="51"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23" t="s">
         <v>48</v>
       </c>
@@ -4641,7 +4645,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
         <v>49</v>
       </c>
@@ -4661,7 +4665,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23" t="s">
         <v>50</v>
       </c>
@@ -4685,7 +4689,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23" t="s">
         <v>51</v>
       </c>
@@ -4705,7 +4709,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23" t="s">
         <v>52</v>
       </c>
@@ -4725,7 +4729,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="s">
         <v>53</v>
       </c>
@@ -4751,7 +4755,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="52" t="s">
         <v>99</v>
@@ -4773,7 +4777,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>54</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
         <v>55</v>
       </c>
@@ -4821,7 +4825,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>62</v>
       </c>
@@ -4839,7 +4843,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
         <v>57</v>
       </c>
@@ -4863,7 +4867,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="s">
         <v>45</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="s">
         <v>46</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>156</v>
@@ -4935,7 +4939,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="51"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
         <v>47</v>
       </c>
@@ -4959,7 +4963,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>48</v>
       </c>
@@ -4985,7 +4989,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>133</v>
@@ -5005,7 +5009,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>159</v>
@@ -5025,7 +5029,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="51"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="s">
         <v>49</v>
       </c>
@@ -5049,7 +5053,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="s">
         <v>50</v>
       </c>
@@ -5073,7 +5077,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="s">
         <v>51</v>
       </c>
@@ -5097,7 +5101,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="s">
         <v>52</v>
       </c>
@@ -5121,7 +5125,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>97</v>
@@ -5143,7 +5147,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="s">
         <v>53</v>
       </c>
@@ -5169,7 +5173,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>166</v>
@@ -5189,7 +5193,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="51"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="s">
         <v>54</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>167</v>
@@ -5233,7 +5237,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="51"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23" t="s">
         <v>55</v>
       </c>
@@ -5259,7 +5263,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>94</v>
@@ -5281,7 +5285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>170</v>
@@ -5307,7 +5311,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="51"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>63</v>
       </c>
@@ -5325,7 +5329,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="s">
         <v>57</v>
       </c>
@@ -5351,7 +5355,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>172</v>
@@ -5371,7 +5375,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="51"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
         <v>45</v>
       </c>
@@ -5395,7 +5399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>94</v>
@@ -5417,7 +5421,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>174</v>
@@ -5437,7 +5441,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="51"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23" t="s">
         <v>46</v>
       </c>
@@ -5463,7 +5467,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>91</v>
@@ -5485,7 +5489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>133</v>
@@ -5505,7 +5509,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>177</v>
@@ -5525,7 +5529,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="51"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>178</v>
@@ -5545,7 +5549,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="51"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23" t="s">
         <v>47</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>180</v>
@@ -5591,7 +5595,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="51"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="s">
         <v>48</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>182</v>
@@ -5637,7 +5641,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="51"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23" t="s">
         <v>49</v>
       </c>
@@ -5661,7 +5665,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>184</v>
@@ -5681,7 +5685,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23" t="s">
         <v>50</v>
       </c>
@@ -5707,7 +5711,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>172</v>
@@ -5727,7 +5731,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="51"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="s">
         <v>51</v>
       </c>
@@ -5753,7 +5757,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>104</v>
@@ -5775,7 +5779,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>188</v>
@@ -5795,7 +5799,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="51"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>52</v>
       </c>
@@ -5821,7 +5825,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>190</v>
@@ -5841,7 +5845,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="51"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23" t="s">
         <v>53</v>
       </c>
@@ -5865,7 +5869,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>97</v>
@@ -5887,7 +5891,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>192</v>
@@ -5907,7 +5911,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23" t="s">
         <v>54</v>
       </c>
@@ -5933,7 +5937,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>94</v>
@@ -5955,7 +5959,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>195</v>
@@ -5975,7 +5979,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="51"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23" t="s">
         <v>55</v>
       </c>
@@ -6001,7 +6005,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>197</v>
@@ -6021,7 +6025,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="51"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48" t="s">
         <v>64</v>
       </c>
@@ -6039,7 +6043,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23" t="s">
         <v>57</v>
       </c>
@@ -6063,7 +6067,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23" t="s">
         <v>45</v>
       </c>
@@ -6087,7 +6091,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23" t="s">
         <v>46</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>133</v>
@@ -6133,7 +6137,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23" t="s">
         <v>47</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>133</v>
@@ -6177,7 +6181,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>204</v>
@@ -6199,7 +6203,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23" t="s">
         <v>48</v>
       </c>
@@ -6223,7 +6227,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23" t="s">
         <v>49</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>207</v>
@@ -6269,7 +6273,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="51"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23" t="s">
         <v>50</v>
       </c>
@@ -6295,7 +6299,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>205</v>
@@ -6315,7 +6319,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="51"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23" t="s">
         <v>51</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>210</v>
@@ -6361,7 +6365,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="51"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23" t="s">
         <v>52</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>213</v>
@@ -6407,7 +6411,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="51"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23" t="s">
         <v>53</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>215</v>
@@ -6453,7 +6457,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="51"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23" t="s">
         <v>54</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>217</v>
@@ -6499,7 +6503,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="51"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23" t="s">
         <v>55</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>219</v>
@@ -6545,7 +6549,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="51"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="48" t="s">
         <v>65</v>
       </c>
@@ -6563,7 +6567,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23" t="s">
         <v>57</v>
       </c>
@@ -6587,7 +6591,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23" t="s">
         <v>45</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="15" t="s">
         <v>222</v>
@@ -6633,7 +6637,7 @@
       <c r="J183" s="12"/>
       <c r="K183" s="54"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23" t="s">
         <v>46</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="15" t="s">
         <v>91</v>
@@ -6681,7 +6685,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="15" t="s">
         <v>225</v>
@@ -6701,7 +6705,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="55"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23" t="s">
         <v>47</v>
       </c>
@@ -6725,7 +6729,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23" t="s">
         <v>48</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>160</v>
@@ -6769,7 +6773,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="51"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23" t="s">
         <v>49</v>
       </c>
@@ -6793,7 +6797,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>94</v>
@@ -6815,7 +6819,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23" t="s">
         <v>50</v>
       </c>
@@ -6841,7 +6845,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>234</v>
@@ -6861,7 +6865,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="51"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23" t="s">
         <v>51</v>
       </c>
@@ -6887,7 +6891,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>199</v>
@@ -6907,7 +6911,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="51"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>97</v>
@@ -6929,7 +6933,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23" t="s">
         <v>52</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>227</v>
@@ -6975,7 +6979,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="51"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23" t="s">
         <v>53</v>
       </c>
@@ -7001,7 +7005,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>244</v>
@@ -7021,7 +7025,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="51"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23" t="s">
         <v>54</v>
       </c>
@@ -7045,7 +7049,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>245</v>
@@ -7065,7 +7069,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="51"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23" t="s">
         <v>55</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>172</v>
@@ -7111,7 +7115,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="53"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="48" t="s">
         <v>66</v>
       </c>
@@ -7129,7 +7133,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23" t="s">
         <v>57</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>249</v>
@@ -7175,7 +7179,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="51"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23" t="s">
         <v>45</v>
       </c>
@@ -7199,7 +7203,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>252</v>
@@ -7219,7 +7223,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="51"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23" t="s">
         <v>46</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>254</v>
@@ -7265,7 +7269,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="51"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23" t="s">
         <v>47</v>
       </c>
@@ -7289,7 +7293,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23" t="s">
         <v>48</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>91</v>
@@ -7337,7 +7341,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>94</v>
@@ -7359,7 +7363,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>94</v>
@@ -7381,7 +7385,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23" t="s">
         <v>49</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>97</v>
@@ -7427,7 +7431,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23" t="s">
         <v>50</v>
       </c>
@@ -7447,7 +7451,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23" t="s">
         <v>51</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>108</v>
@@ -7495,7 +7499,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23" t="s">
         <v>52</v>
       </c>
@@ -7521,7 +7525,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23" t="s">
         <v>53</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23" t="s">
         <v>54</v>
       </c>
@@ -7571,7 +7575,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23" t="s">
         <v>55</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="48" t="s">
         <v>67</v>
       </c>
@@ -7615,7 +7619,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23" t="s">
         <v>57</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23" t="s">
         <v>45</v>
       </c>
@@ -7661,7 +7665,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23" t="s">
         <v>46</v>
       </c>
@@ -7687,7 +7691,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23" t="s">
         <v>47</v>
       </c>
@@ -7713,7 +7717,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>133</v>
@@ -7731,7 +7735,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="51"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23" t="s">
         <v>48</v>
       </c>
@@ -7757,7 +7761,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>133</v>
@@ -7777,7 +7781,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23" t="s">
         <v>49</v>
       </c>
@@ -7803,7 +7807,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23" t="s">
         <v>50</v>
       </c>
@@ -7823,7 +7827,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23" t="s">
         <v>51</v>
       </c>
@@ -7843,7 +7847,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="51"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -7859,7 +7863,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="51"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23" t="s">
         <v>52</v>
       </c>
@@ -7885,7 +7889,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23" t="s">
         <v>53</v>
       </c>
@@ -7911,7 +7915,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23" t="s">
         <v>54</v>
       </c>
@@ -7935,7 +7939,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23" t="s">
         <v>55</v>
       </c>
@@ -7955,7 +7959,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="51"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="48" t="s">
         <v>68</v>
       </c>
@@ -7973,7 +7977,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23" t="s">
         <v>57</v>
       </c>
@@ -7997,7 +8001,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23" t="s">
         <v>45</v>
       </c>
@@ -8023,7 +8027,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23" t="s">
         <v>46</v>
       </c>
@@ -8047,7 +8051,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23" t="s">
         <v>47</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>277</v>
@@ -8093,7 +8097,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="51"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23" t="s">
         <v>48</v>
       </c>
@@ -8117,7 +8121,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23" t="s">
         <v>49</v>
       </c>
@@ -8143,7 +8147,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>280</v>
@@ -8163,7 +8167,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="51"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23" t="s">
         <v>50</v>
       </c>
@@ -8187,7 +8191,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23" t="s">
         <v>51</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>97</v>
@@ -8235,7 +8239,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23" t="s">
         <v>52</v>
       </c>
@@ -8259,7 +8263,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="51"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>133</v>
@@ -8279,7 +8283,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>91</v>
@@ -8301,7 +8305,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>285</v>
@@ -8321,7 +8325,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="51"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23" t="s">
         <v>53</v>
       </c>
@@ -8347,7 +8351,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23" t="s">
         <v>54</v>
       </c>
@@ -8371,7 +8375,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>288</v>
@@ -8391,7 +8395,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="51"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>289</v>
@@ -8411,7 +8415,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="51"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>94</v>
@@ -8433,7 +8437,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23" t="s">
         <v>55</v>
       </c>
@@ -8457,7 +8461,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>290</v>
@@ -8479,7 +8483,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>292</v>
@@ -8499,7 +8503,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="51"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="48" t="s">
         <v>69</v>
       </c>
@@ -8517,7 +8521,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23" t="s">
         <v>57</v>
       </c>
@@ -8543,7 +8547,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>294</v>
@@ -8563,7 +8567,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="51"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23" t="s">
         <v>45</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>133</v>
@@ -8609,7 +8613,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>295</v>
@@ -8629,7 +8633,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="51"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23" t="s">
         <v>46</v>
       </c>
@@ -8655,7 +8659,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>299</v>
@@ -8675,7 +8679,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="51"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23" t="s">
         <v>47</v>
       </c>
@@ -8699,7 +8703,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>290</v>
@@ -8721,7 +8725,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>301</v>
@@ -8741,7 +8745,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="51"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23" t="s">
         <v>48</v>
       </c>
@@ -8765,7 +8769,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>303</v>
@@ -8785,7 +8789,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="51"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23" t="s">
         <v>49</v>
       </c>
@@ -8809,7 +8813,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23" t="s">
         <v>50</v>
       </c>
@@ -8835,7 +8839,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>97</v>
@@ -8857,7 +8861,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>308</v>
@@ -8877,7 +8881,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="51"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23" t="s">
         <v>51</v>
       </c>
@@ -8903,7 +8907,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>310</v>
@@ -8923,7 +8927,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="51"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23" t="s">
         <v>52</v>
       </c>
@@ -8949,7 +8953,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>313</v>
@@ -8969,7 +8973,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="51"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23" t="s">
         <v>53</v>
       </c>
@@ -8993,7 +8997,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23" t="s">
         <v>54</v>
       </c>
@@ -9019,7 +9023,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>97</v>
@@ -9041,7 +9045,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>317</v>
@@ -9061,7 +9065,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="51"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23" t="s">
         <v>55</v>
       </c>
@@ -9087,7 +9091,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>320</v>
@@ -9107,7 +9111,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="51"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="48" t="s">
         <v>70</v>
       </c>
@@ -9125,7 +9129,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23" t="s">
         <v>57</v>
       </c>
@@ -9149,7 +9153,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23" t="s">
         <v>45</v>
       </c>
@@ -9175,7 +9179,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23" t="s">
         <v>46</v>
       </c>
@@ -9201,7 +9205,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>104</v>
@@ -9223,7 +9227,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23" t="s">
         <v>47</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23" t="s">
         <v>48</v>
       </c>
@@ -9273,7 +9277,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23" t="s">
         <v>49</v>
       </c>
@@ -9293,7 +9297,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23" t="s">
         <v>50</v>
       </c>
@@ -9313,7 +9317,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23" t="s">
         <v>51</v>
       </c>
@@ -9333,7 +9337,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23" t="s">
         <v>52</v>
       </c>
@@ -9359,7 +9363,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23" t="s">
         <v>53</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23" t="s">
         <v>54</v>
       </c>
@@ -9403,7 +9407,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23" t="s">
         <v>55</v>
       </c>
@@ -9425,7 +9429,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="48" t="s">
         <v>71</v>
       </c>
@@ -9443,7 +9447,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23" t="s">
         <v>57</v>
       </c>
@@ -9463,7 +9467,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23" t="s">
         <v>45</v>
       </c>
@@ -9489,7 +9493,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23" t="s">
         <v>46</v>
       </c>
@@ -9515,7 +9519,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>133</v>
@@ -9535,7 +9539,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23" t="s">
         <v>47</v>
       </c>
@@ -9555,7 +9559,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23" t="s">
         <v>48</v>
       </c>
@@ -9575,7 +9579,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23" t="s">
         <v>49</v>
       </c>
@@ -9595,7 +9599,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23" t="s">
         <v>50</v>
       </c>
@@ -9621,7 +9625,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23" t="s">
         <v>51</v>
       </c>
@@ -9645,7 +9649,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23" t="s">
         <v>52</v>
       </c>
@@ -9671,7 +9675,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23" t="s">
         <v>53</v>
       </c>
@@ -9691,7 +9695,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23" t="s">
         <v>54</v>
       </c>
@@ -9711,7 +9715,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23" t="s">
         <v>55</v>
       </c>
@@ -9731,7 +9735,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="48" t="s">
         <v>72</v>
       </c>
@@ -9749,7 +9753,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23" t="s">
         <v>57</v>
       </c>
@@ -9769,7 +9773,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23" t="s">
         <v>45</v>
       </c>
@@ -9789,7 +9793,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23" t="s">
         <v>46</v>
       </c>
@@ -9815,7 +9819,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>133</v>
@@ -9835,7 +9839,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>211</v>
@@ -9857,7 +9861,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>336</v>
@@ -9879,7 +9883,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23" t="s">
         <v>47</v>
       </c>
@@ -9905,7 +9909,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23" t="s">
         <v>48</v>
       </c>
@@ -9931,7 +9935,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>133</v>
@@ -9951,7 +9955,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>94</v>
@@ -9973,7 +9977,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>340</v>
@@ -9993,7 +9997,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="51"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23" t="s">
         <v>49</v>
       </c>
@@ -10017,7 +10021,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23" t="s">
         <v>50</v>
       </c>
@@ -10037,7 +10041,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23" t="s">
         <v>51</v>
       </c>
@@ -10061,7 +10065,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23" t="s">
         <v>52</v>
       </c>
@@ -10087,7 +10091,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>205</v>
@@ -10107,7 +10111,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="51"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23" t="s">
         <v>53</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23" t="s">
         <v>54</v>
       </c>
@@ -10157,7 +10161,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>346</v>
@@ -10179,7 +10183,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23" t="s">
         <v>55</v>
       </c>
@@ -10203,7 +10207,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="48" t="s">
         <v>73</v>
       </c>
@@ -10221,7 +10225,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23" t="s">
         <v>57</v>
       </c>
@@ -10247,7 +10251,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>320</v>
@@ -10267,7 +10271,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="51"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23" t="s">
         <v>45</v>
       </c>
@@ -10293,7 +10297,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>351</v>
@@ -10313,7 +10317,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="51"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23" t="s">
         <v>46</v>
       </c>
@@ -10339,7 +10343,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="15" t="s">
         <v>133</v>
@@ -10359,7 +10363,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="15" t="s">
         <v>353</v>
@@ -10379,7 +10383,7 @@
       <c r="J349" s="12"/>
       <c r="K349" s="55"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23" t="s">
         <v>47</v>
       </c>
@@ -10405,7 +10409,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23"/>
       <c r="B351" s="15" t="s">
         <v>278</v>
@@ -10425,7 +10429,7 @@
       <c r="J351" s="12"/>
       <c r="K351" s="55"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23" t="s">
         <v>48</v>
       </c>
@@ -10451,7 +10455,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>356</v>
@@ -10471,7 +10475,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="51"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23" t="s">
         <v>49</v>
       </c>
@@ -10491,7 +10495,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23" t="s">
         <v>50</v>
       </c>
@@ -10515,7 +10519,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
         <v>94</v>
@@ -10537,7 +10541,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>359</v>
@@ -10557,7 +10561,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="51"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23" t="s">
         <v>51</v>
       </c>
@@ -10581,7 +10585,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23" t="s">
         <v>52</v>
       </c>
@@ -10607,7 +10611,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>362</v>
@@ -10627,7 +10631,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="51"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23" t="s">
         <v>53</v>
       </c>
@@ -10651,7 +10655,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23" t="s">
         <v>54</v>
       </c>
@@ -10677,7 +10681,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>365</v>
@@ -10697,7 +10701,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="51"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23" t="s">
         <v>55</v>
       </c>
@@ -10721,7 +10725,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="48" t="s">
         <v>74</v>
       </c>
@@ -10739,7 +10743,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23" t="s">
         <v>57</v>
       </c>
@@ -10765,7 +10769,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>367</v>
@@ -10785,7 +10789,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="51"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23" t="s">
         <v>45</v>
       </c>
@@ -10809,7 +10813,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23" t="s">
         <v>46</v>
       </c>
@@ -10835,7 +10839,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>296</v>
@@ -10857,7 +10861,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>369</v>
@@ -10877,7 +10881,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="51"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23" t="s">
         <v>47</v>
       </c>
@@ -10903,7 +10907,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>371</v>
@@ -10923,7 +10927,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="51"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23" t="s">
         <v>48</v>
       </c>
@@ -10949,7 +10953,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>133</v>
@@ -10969,7 +10973,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>94</v>
@@ -10991,7 +10995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>371</v>
@@ -11011,7 +11015,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="51"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23" t="s">
         <v>49</v>
       </c>
@@ -11035,7 +11039,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23" t="s">
         <v>50</v>
       </c>
@@ -11059,7 +11063,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23" t="s">
         <v>51</v>
       </c>
@@ -11085,7 +11089,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>376</v>
@@ -11105,7 +11109,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="51"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23" t="s">
         <v>52</v>
       </c>
@@ -11131,7 +11135,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>377</v>
@@ -11151,7 +11155,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="51"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23" t="s">
         <v>53</v>
       </c>
@@ -11179,7 +11183,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23"/>
       <c r="B385" s="15" t="s">
         <v>133</v>
@@ -11199,7 +11203,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23"/>
       <c r="B386" s="15" t="s">
         <v>378</v>
@@ -11219,7 +11223,7 @@
       <c r="J386" s="12"/>
       <c r="K386" s="55"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23" t="s">
         <v>54</v>
       </c>
@@ -11245,7 +11249,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="15" t="s">
         <v>365</v>
@@ -11265,7 +11269,7 @@
       <c r="J388" s="12"/>
       <c r="K388" s="55"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="15" t="s">
         <v>133</v>
@@ -11285,7 +11289,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23" t="s">
         <v>55</v>
       </c>
@@ -11309,7 +11313,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="48" t="s">
         <v>75</v>
       </c>
@@ -11327,7 +11331,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23" t="s">
         <v>57</v>
       </c>
@@ -11347,7 +11351,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23" t="s">
         <v>45</v>
       </c>
@@ -11371,7 +11375,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23" t="s">
         <v>46</v>
       </c>
@@ -11397,7 +11401,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>290</v>
@@ -11419,7 +11423,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23" t="s">
         <v>47</v>
       </c>
@@ -11443,7 +11447,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23" t="s">
         <v>48</v>
       </c>
@@ -11469,7 +11473,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23" t="s">
         <v>49</v>
       </c>
@@ -11489,7 +11493,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23" t="s">
         <v>50</v>
       </c>
@@ -11515,7 +11519,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23" t="s">
         <v>51</v>
       </c>
@@ -11535,7 +11539,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23" t="s">
         <v>52</v>
       </c>
@@ -11561,7 +11565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>94</v>
@@ -11583,7 +11587,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23" t="s">
         <v>53</v>
       </c>
@@ -11607,7 +11611,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23" t="s">
         <v>54</v>
       </c>
@@ -11633,7 +11637,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23" t="s">
         <v>55</v>
       </c>
@@ -11657,7 +11661,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="48" t="s">
         <v>76</v>
       </c>
@@ -11675,7 +11679,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23" t="s">
         <v>57</v>
       </c>
@@ -11701,7 +11705,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23" t="s">
         <v>45</v>
       </c>
@@ -11721,7 +11725,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23" t="s">
         <v>46</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>94</v>
@@ -11769,7 +11773,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>133</v>
@@ -11789,7 +11793,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23" t="s">
         <v>47</v>
       </c>
@@ -11815,7 +11819,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>97</v>
@@ -11837,7 +11841,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23" t="s">
         <v>48</v>
       </c>
@@ -11863,7 +11867,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23" t="s">
         <v>49</v>
       </c>
@@ -11883,7 +11887,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23" t="s">
         <v>50</v>
       </c>
@@ -11909,7 +11913,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23" t="s">
         <v>51</v>
       </c>
@@ -11929,7 +11933,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23" t="s">
         <v>52</v>
       </c>
@@ -11955,7 +11959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23" t="s">
         <v>53</v>
       </c>
@@ -11975,7 +11979,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23" t="s">
         <v>54</v>
       </c>
@@ -11999,7 +12003,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23" t="s">
         <v>55</v>
       </c>
@@ -12025,7 +12029,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>133</v>
@@ -12045,7 +12049,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="48" t="s">
         <v>77</v>
       </c>
@@ -12063,7 +12067,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23" t="s">
         <v>57</v>
       </c>
@@ -12087,7 +12091,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23" t="s">
         <v>45</v>
       </c>
@@ -12107,7 +12111,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23" t="s">
         <v>46</v>
       </c>
@@ -12133,7 +12137,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23" t="s">
         <v>47</v>
       </c>
@@ -12159,7 +12163,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>133</v>
@@ -12179,7 +12183,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23" t="s">
         <v>48</v>
       </c>
@@ -12199,7 +12203,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23" t="s">
         <v>49</v>
       </c>
@@ -12223,7 +12227,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23" t="s">
         <v>50</v>
       </c>
@@ -12243,7 +12247,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23" t="s">
         <v>51</v>
       </c>
@@ -12263,7 +12267,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23" t="s">
         <v>52</v>
       </c>
@@ -12289,7 +12293,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>296</v>
@@ -12311,7 +12315,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23" t="s">
         <v>53</v>
       </c>
@@ -12337,7 +12341,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>133</v>
@@ -12357,7 +12361,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23" t="s">
         <v>54</v>
       </c>
@@ -12383,7 +12387,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>108</v>
@@ -12405,7 +12409,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23" t="s">
         <v>55</v>
       </c>
@@ -12429,7 +12433,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="48" t="s">
         <v>78</v>
       </c>
@@ -12447,7 +12451,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23" t="s">
         <v>57</v>
       </c>
@@ -12467,7 +12471,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23" t="s">
         <v>45</v>
       </c>
@@ -12493,7 +12497,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>290</v>
@@ -12513,7 +12517,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="51"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23" t="s">
         <v>46</v>
       </c>
@@ -12539,7 +12543,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23" t="s">
         <v>47</v>
       </c>
@@ -12559,7 +12563,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23" t="s">
         <v>48</v>
       </c>
@@ -12583,7 +12587,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>104</v>
@@ -12605,7 +12609,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23" t="s">
         <v>49</v>
       </c>
@@ -12625,7 +12629,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23" t="s">
         <v>50</v>
       </c>
@@ -12645,7 +12649,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23" t="s">
         <v>51</v>
       </c>
@@ -12665,7 +12669,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23" t="s">
         <v>52</v>
       </c>
@@ -12691,7 +12695,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23" t="s">
         <v>53</v>
       </c>
@@ -12717,7 +12721,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>296</v>
@@ -12739,7 +12743,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -12752,7 +12756,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="51"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23" t="s">
         <v>54</v>
       </c>
@@ -12767,7 +12771,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="51"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -12780,7 +12784,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="51"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23" t="s">
         <v>55</v>
       </c>
@@ -12800,7 +12804,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="48" t="s">
         <v>79</v>
       </c>
@@ -12818,7 +12822,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23" t="s">
         <v>57</v>
       </c>
@@ -12838,7 +12842,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23" t="s">
         <v>45</v>
       </c>
@@ -12864,7 +12868,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23" t="s">
         <v>46</v>
       </c>
@@ -12890,7 +12894,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23" t="s">
         <v>47</v>
       </c>
@@ -12916,7 +12920,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23" t="s">
         <v>48</v>
       </c>
@@ -12936,7 +12940,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23" t="s">
         <v>49</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23" t="s">
         <v>50</v>
       </c>
@@ -12980,7 +12984,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23" t="s">
         <v>51</v>
       </c>
@@ -13000,7 +13004,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23" t="s">
         <v>52</v>
       </c>
@@ -13026,7 +13030,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>97</v>
@@ -13048,7 +13052,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23" t="s">
         <v>53</v>
       </c>
@@ -13074,7 +13078,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23" t="s">
         <v>54</v>
       </c>
@@ -13100,7 +13104,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
         <v>91</v>
@@ -13122,7 +13126,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23" t="s">
         <v>55</v>
       </c>
@@ -13142,7 +13146,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="48" t="s">
         <v>80</v>
       </c>
@@ -13160,7 +13164,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23" t="s">
         <v>57</v>
       </c>
@@ -13180,7 +13184,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23" t="s">
         <v>45</v>
       </c>
@@ -13206,7 +13210,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23" t="s">
         <v>46</v>
       </c>
@@ -13226,7 +13230,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23" t="s">
         <v>47</v>
       </c>
@@ -13250,7 +13254,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23" t="s">
         <v>48</v>
       </c>
@@ -13270,7 +13274,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23" t="s">
         <v>49</v>
       </c>
@@ -13290,7 +13294,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="23" t="s">
         <v>50</v>
       </c>
@@ -13310,7 +13314,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="23" t="s">
         <v>51</v>
       </c>
@@ -13330,7 +13334,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23" t="s">
         <v>52</v>
       </c>
@@ -13356,7 +13360,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23" t="s">
         <v>53</v>
       </c>
@@ -13380,7 +13384,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="23"/>
       <c r="B484" s="20" t="s">
         <v>94</v>
@@ -13402,7 +13406,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
         <v>91</v>
@@ -13424,7 +13428,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>133</v>
@@ -13444,7 +13448,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23" t="s">
         <v>54</v>
       </c>
@@ -13470,7 +13474,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="23" t="s">
         <v>55</v>
       </c>
@@ -13490,7 +13494,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="48" t="s">
         <v>81</v>
       </c>
@@ -13508,7 +13512,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23" t="s">
         <v>57</v>
       </c>
@@ -13534,7 +13538,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="23" t="s">
         <v>45</v>
       </c>
@@ -13554,7 +13558,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="23" t="s">
         <v>46</v>
       </c>
@@ -13580,7 +13584,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="23" t="s">
         <v>47</v>
       </c>
@@ -13604,7 +13608,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
         <v>94</v>
@@ -13626,7 +13630,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>108</v>
@@ -13648,7 +13652,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="23" t="s">
         <v>48</v>
       </c>
@@ -13668,7 +13672,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="23" t="s">
         <v>49</v>
       </c>
@@ -13688,7 +13692,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="23" t="s">
         <v>50</v>
       </c>
@@ -13708,7 +13712,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="23" t="s">
         <v>51</v>
       </c>
@@ -13728,7 +13732,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="23" t="s">
         <v>52</v>
       </c>
@@ -13754,7 +13758,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="23"/>
       <c r="B501" s="20" t="s">
         <v>265</v>
@@ -13774,7 +13778,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>108</v>
@@ -13796,7 +13800,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="23"/>
       <c r="B503" s="20" t="s">
         <v>94</v>
@@ -13818,7 +13822,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="23" t="s">
         <v>53</v>
       </c>
@@ -13844,7 +13848,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="23" t="s">
         <v>54</v>
       </c>
@@ -13864,7 +13868,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="23" t="s">
         <v>55</v>
       </c>
@@ -13888,7 +13892,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="48" t="s">
         <v>82</v>
       </c>
@@ -13906,7 +13910,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="23" t="s">
         <v>57</v>
       </c>
@@ -13926,7 +13930,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="23" t="s">
         <v>45</v>
       </c>
@@ -13946,7 +13950,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="23" t="s">
         <v>46</v>
       </c>
@@ -13966,7 +13970,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="23" t="s">
         <v>47</v>
       </c>
@@ -13986,7 +13990,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="23" t="s">
         <v>48</v>
       </c>
@@ -14006,7 +14010,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="23" t="s">
         <v>49</v>
       </c>
@@ -14026,7 +14030,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="23" t="s">
         <v>50</v>
       </c>
@@ -14052,7 +14056,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="23" t="s">
         <v>51</v>
       </c>
@@ -14072,7 +14076,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="23" t="s">
         <v>52</v>
       </c>
@@ -14098,7 +14102,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>406</v>
@@ -14118,7 +14122,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="23" t="s">
         <v>53</v>
       </c>
@@ -14144,7 +14148,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="23" t="s">
         <v>54</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="23"/>
       <c r="B520" s="20" t="s">
         <v>91</v>
@@ -14192,7 +14196,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="23" t="s">
         <v>55</v>
       </c>
@@ -14212,7 +14216,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="48" t="s">
         <v>83</v>
       </c>
@@ -14230,7 +14234,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="23" t="s">
         <v>57</v>
       </c>
@@ -14256,7 +14260,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="23" t="s">
         <v>45</v>
       </c>
@@ -14276,7 +14280,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="23" t="s">
         <v>46</v>
       </c>
@@ -14302,7 +14306,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="23" t="s">
         <v>47</v>
       </c>
@@ -14322,7 +14326,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="23" t="s">
         <v>48</v>
       </c>
@@ -14342,7 +14346,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="23" t="s">
         <v>49</v>
       </c>
@@ -14362,7 +14366,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="23" t="s">
         <v>50</v>
       </c>
@@ -14382,7 +14386,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="23" t="s">
         <v>51</v>
       </c>
@@ -14402,7 +14406,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="23" t="s">
         <v>52</v>
       </c>
@@ -14422,7 +14426,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="23" t="s">
         <v>53</v>
       </c>
@@ -14442,7 +14446,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="23" t="s">
         <v>54</v>
       </c>
@@ -14466,7 +14470,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>89</v>
@@ -14488,7 +14492,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
         <v>265</v>
@@ -14508,7 +14512,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="23" t="s">
         <v>55</v>
       </c>
@@ -14528,7 +14532,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="48" t="s">
         <v>84</v>
       </c>
@@ -14546,7 +14550,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="23" t="s">
         <v>57</v>
       </c>
@@ -14566,7 +14570,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="23" t="s">
         <v>45</v>
       </c>
@@ -14586,7 +14590,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="23" t="s">
         <v>46</v>
       </c>
@@ -14606,7 +14610,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="23" t="s">
         <v>47</v>
       </c>
@@ -14626,7 +14630,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="23" t="s">
         <v>48</v>
       </c>
@@ -14646,7 +14650,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="23" t="s">
         <v>49</v>
       </c>
@@ -14672,7 +14676,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="23" t="s">
         <v>50</v>
       </c>
@@ -14692,7 +14696,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="23" t="s">
         <v>51</v>
       </c>
@@ -14712,7 +14716,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="23" t="s">
         <v>52</v>
       </c>
@@ -14732,7 +14736,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="23" t="s">
         <v>53</v>
       </c>
@@ -14752,7 +14756,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="23" t="s">
         <v>54</v>
       </c>
@@ -14772,7 +14776,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="23" t="s">
         <v>55</v>
       </c>
@@ -14798,7 +14802,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="23"/>
       <c r="B550" s="20" t="s">
         <v>406</v>
@@ -14818,7 +14822,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="48" t="s">
         <v>85</v>
       </c>
@@ -14838,7 +14842,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="23" t="s">
         <v>57</v>
       </c>
@@ -14858,7 +14862,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="23" t="s">
         <v>45</v>
       </c>
@@ -14878,7 +14882,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="23" t="s">
         <v>46</v>
       </c>
@@ -14898,7 +14902,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="23" t="s">
         <v>47</v>
       </c>
@@ -14918,7 +14922,7 @@
       <c r="J555" s="12"/>
       <c r="K555" s="15"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="23" t="s">
         <v>48</v>
       </c>
@@ -14944,7 +14948,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="23" t="s">
         <v>49</v>
       </c>
@@ -14964,7 +14968,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="23" t="s">
         <v>50</v>
       </c>
@@ -14984,7 +14988,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="23" t="s">
         <v>51</v>
       </c>
@@ -15004,7 +15008,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="23" t="s">
         <v>52</v>
       </c>
@@ -15024,7 +15028,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="23" t="s">
         <v>53</v>
       </c>
@@ -15050,7 +15054,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="23"/>
       <c r="B562" s="20" t="s">
         <v>108</v>
@@ -15072,7 +15076,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>133</v>
@@ -15092,7 +15096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="23" t="s">
         <v>54</v>
       </c>
@@ -15118,7 +15122,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="23"/>
       <c r="B565" s="20" t="s">
         <v>265</v>
@@ -15138,7 +15142,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="23" t="s">
         <v>55</v>
       </c>
@@ -15158,7 +15162,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="48" t="s">
         <v>86</v>
       </c>
@@ -15176,7 +15180,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="23" t="s">
         <v>57</v>
       </c>
@@ -15202,7 +15206,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="23" t="s">
         <v>45</v>
       </c>
@@ -15228,7 +15232,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="23" t="s">
         <v>46</v>
       </c>
@@ -15252,7 +15256,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="23" t="s">
         <v>47</v>
       </c>
@@ -15278,7 +15282,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="23"/>
       <c r="B572" s="20" t="s">
         <v>94</v>
@@ -15298,7 +15302,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="51"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="23"/>
       <c r="B573" s="20" t="s">
         <v>94</v>
@@ -15320,7 +15324,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="23" t="s">
         <v>48</v>
       </c>
@@ -15340,7 +15344,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="23" t="s">
         <v>49</v>
       </c>
@@ -15366,7 +15370,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="23" t="s">
         <v>50</v>
       </c>
@@ -15392,7 +15396,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="23" t="s">
         <v>51</v>
       </c>
@@ -15418,7 +15422,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="23" t="s">
         <v>52</v>
       </c>
@@ -15444,7 +15448,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="23" t="s">
         <v>53</v>
       </c>
@@ -15470,7 +15474,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="23"/>
       <c r="B580" s="20" t="s">
         <v>107</v>
@@ -15492,7 +15496,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="23" t="s">
         <v>54</v>
       </c>
@@ -15516,7 +15520,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="23" t="s">
         <v>55</v>
       </c>
@@ -15540,7 +15544,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>108</v>
@@ -15562,7 +15566,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="48" t="s">
         <v>447</v>
       </c>
@@ -15580,7 +15584,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="41">
         <v>44927</v>
       </c>
@@ -15604,7 +15608,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>44958</v>
       </c>
@@ -15630,7 +15634,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>94</v>
@@ -15652,7 +15656,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>44986</v>
       </c>
@@ -15678,7 +15682,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>45017</v>
       </c>
@@ -15702,7 +15706,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>45047</v>
       </c>
@@ -15720,7 +15724,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>45078</v>
       </c>
@@ -15738,7 +15742,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>45108</v>
       </c>
@@ -15756,7 +15760,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>45139</v>
       </c>
@@ -15774,7 +15778,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>45170</v>
       </c>
@@ -15792,7 +15796,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>45200</v>
       </c>
@@ -15810,7 +15814,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>45231</v>
       </c>
@@ -15828,7 +15832,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>45261</v>
       </c>
@@ -15846,7 +15850,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>45292</v>
       </c>
@@ -15864,7 +15868,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>45323</v>
       </c>
@@ -15882,7 +15886,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>45352</v>
       </c>
@@ -15900,7 +15904,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>45383</v>
       </c>
@@ -15918,7 +15922,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>45413</v>
       </c>
@@ -15936,7 +15940,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>45444</v>
       </c>
@@ -15954,7 +15958,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>45474</v>
       </c>
@@ -15972,7 +15976,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>45505</v>
       </c>
@@ -15990,7 +15994,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>45536</v>
       </c>
@@ -16008,7 +16012,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>45566</v>
       </c>
@@ -16026,7 +16030,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <v>45597</v>
       </c>
@@ -16044,7 +16048,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>45627</v>
       </c>
@@ -16062,7 +16066,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>45658</v>
       </c>
@@ -16080,7 +16084,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>45689</v>
       </c>
@@ -16098,7 +16102,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>45717</v>
       </c>
@@ -16116,7 +16120,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>45748</v>
       </c>
@@ -16134,7 +16138,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>45778</v>
       </c>
@@ -16152,7 +16156,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>45809</v>
       </c>
@@ -16170,7 +16174,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>45839</v>
       </c>
@@ -16188,7 +16192,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>45870</v>
       </c>
@@ -16206,7 +16210,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>45901</v>
       </c>
@@ -16224,7 +16228,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>45931</v>
       </c>
@@ -16242,7 +16246,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>45962</v>
       </c>
@@ -16260,7 +16264,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>45992</v>
       </c>
@@ -16278,7 +16282,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>46023</v>
       </c>
@@ -16296,7 +16300,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>46054</v>
       </c>
@@ -16314,7 +16318,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>46082</v>
       </c>
@@ -16332,7 +16336,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>46113</v>
       </c>
@@ -16350,7 +16354,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>46143</v>
       </c>
@@ -16368,7 +16372,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>46174</v>
       </c>
@@ -16386,7 +16390,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>46204</v>
       </c>
@@ -16404,7 +16408,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>46235</v>
       </c>
@@ -16422,7 +16426,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>46266</v>
       </c>
@@ -16440,7 +16444,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>46296</v>
       </c>
@@ -16458,7 +16462,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>46327</v>
       </c>
@@ -16476,7 +16480,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <v>46357</v>
       </c>
@@ -16494,7 +16498,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>46388</v>
       </c>
@@ -16512,7 +16516,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>46419</v>
       </c>
@@ -16530,7 +16534,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <v>46447</v>
       </c>
@@ -16548,7 +16552,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>46478</v>
       </c>
@@ -16566,7 +16570,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>46508</v>
       </c>
@@ -16584,7 +16588,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>46539</v>
       </c>
@@ -16602,7 +16606,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>46569</v>
       </c>
@@ -16620,7 +16624,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>46600</v>
       </c>
@@ -16638,7 +16642,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>46631</v>
       </c>
@@ -16656,7 +16660,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>46661</v>
       </c>
@@ -16674,7 +16678,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>46692</v>
       </c>
@@ -16692,7 +16696,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>46722</v>
       </c>
@@ -16710,7 +16714,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>46753</v>
       </c>
@@ -16728,7 +16732,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>46784</v>
       </c>
@@ -16746,7 +16750,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>46813</v>
       </c>
@@ -16764,7 +16768,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>46844</v>
       </c>
@@ -16782,7 +16786,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>46874</v>
       </c>
@@ -16800,7 +16804,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>46905</v>
       </c>
@@ -16818,7 +16822,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>46935</v>
       </c>
@@ -16836,7 +16840,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>46966</v>
       </c>
@@ -16854,7 +16858,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>46997</v>
       </c>
@@ -16872,7 +16876,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>47027</v>
       </c>
@@ -16890,7 +16894,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>47058</v>
       </c>
@@ -16908,7 +16912,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>47088</v>
       </c>
@@ -16926,7 +16930,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>47119</v>
       </c>
@@ -16944,7 +16948,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>47150</v>
       </c>
@@ -16962,7 +16966,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>47178</v>
       </c>
@@ -16980,7 +16984,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16996,7 +17000,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17012,7 +17016,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17028,7 +17032,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17044,7 +17048,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17060,7 +17064,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17076,7 +17080,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17092,7 +17096,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17108,7 +17112,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17124,7 +17128,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17140,7 +17144,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17156,7 +17160,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17172,7 +17176,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17188,7 +17192,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17204,7 +17208,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17220,7 +17224,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17236,7 +17240,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17252,7 +17256,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17268,7 +17272,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17284,7 +17288,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17300,7 +17304,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17316,7 +17320,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17332,7 +17336,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17348,7 +17352,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17364,7 +17368,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17380,7 +17384,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17396,7 +17400,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17412,7 +17416,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17428,7 +17432,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17444,7 +17448,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17460,7 +17464,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17476,7 +17480,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17492,7 +17496,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17508,7 +17512,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17524,7 +17528,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17540,7 +17544,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17556,7 +17560,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17572,7 +17576,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17588,7 +17592,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17604,7 +17608,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17620,7 +17624,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17636,7 +17640,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17652,7 +17656,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17668,7 +17672,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17684,7 +17688,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17700,7 +17704,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -17716,7 +17720,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -17732,7 +17736,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -17748,7 +17752,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -17764,7 +17768,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -17780,7 +17784,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -17796,7 +17800,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -17812,7 +17816,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -17828,7 +17832,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -17844,7 +17848,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -17860,7 +17864,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -17876,7 +17880,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -17892,7 +17896,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -17908,7 +17912,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -17924,7 +17928,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -17940,7 +17944,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -17956,7 +17960,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -17972,7 +17976,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -17988,7 +17992,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18004,7 +18008,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18020,7 +18024,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18036,7 +18040,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="41"/>
       <c r="B727" s="15"/>
       <c r="C727" s="42"/>
@@ -18068,10 +18072,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18094,28 +18098,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -18128,7 +18132,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18157,7 +18161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18179,7 +18183,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -18194,10 +18198,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18217,7 +18224,11 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>355.69530000000009</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18243,7 +18254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18269,7 +18280,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18295,7 +18306,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18321,7 +18332,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18347,7 +18358,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18373,7 +18384,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18399,7 +18410,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18425,7 +18436,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18445,7 +18456,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18465,7 +18476,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18485,7 +18496,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18506,7 +18517,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18527,7 +18538,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18548,7 +18559,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18569,7 +18580,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18590,7 +18601,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18611,7 +18622,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18632,7 +18643,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18653,7 +18664,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18674,7 +18685,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18695,7 +18706,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18716,7 +18727,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18737,7 +18748,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18758,7 +18769,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18779,7 +18790,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18800,7 +18811,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18821,7 +18832,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18842,7 +18853,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18863,7 +18874,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18884,7 +18895,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18905,7 +18916,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18914,7 +18925,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18923,7 +18934,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18932,7 +18943,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18941,7 +18952,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18950,7 +18961,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18959,7 +18970,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18968,7 +18979,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18977,7 +18988,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18986,7 +18997,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18995,7 +19006,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19004,7 +19015,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19013,7 +19024,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19022,7 +19033,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19031,7 +19042,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19040,7 +19051,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19049,7 +19060,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19058,7 +19069,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19067,7 +19078,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19076,7 +19087,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19085,7 +19096,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19094,7 +19105,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19103,7 +19114,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19112,7 +19123,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19121,7 +19132,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19130,7 +19141,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19139,7 +19150,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19148,7 +19159,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19157,7 +19168,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19166,7 +19177,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/DIMARANAN, RODORA GARCIA.xlsx
+++ b/REGULAR/DIMARANAN, RODORA GARCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F7DF1E-EA7C-4E2B-B7CE-8DB54ED37A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2C6BA8-9264-4A03-A12E-2F829A38F764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="455">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2461,9 +2461,9 @@
   <dimension ref="A2:K727"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A437" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F442" sqref="F442"/>
+      <pane ySplit="3696" topLeftCell="A587" activePane="bottomLeft"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C596" sqref="C596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2626,7 +2626,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2636,7 +2636,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3390,7 +3390,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="I44" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="51" t="s">
@@ -3490,7 +3490,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="I48" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="51" t="s">
@@ -3654,7 +3654,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I55" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="51" t="s">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E57" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -3720,7 +3720,7 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="51" t="s">
@@ -4182,7 +4182,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="I77" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="51" t="s">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="E79" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -4246,7 +4246,7 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="51" t="s">
@@ -4288,7 +4288,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="I81" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="51" t="s">
@@ -4342,7 +4342,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -4352,7 +4352,7 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="51" t="s">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="E85" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
@@ -4406,7 +4406,7 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="51"/>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E92" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -4570,7 +4570,7 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J92" s="11"/>
       <c r="K92" s="51" t="s">
@@ -4586,7 +4586,7 @@
       <c r="D93" s="39"/>
       <c r="E93" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="I93" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="51" t="s">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="E124" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.63030000000009</v>
+        <v>162.88030000000009</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -5306,7 +5306,7 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.065</v>
+        <v>193.315</v>
       </c>
       <c r="J124" s="11"/>
       <c r="K124" s="51"/>
@@ -15710,25 +15710,35 @@
       <c r="A590" s="40">
         <v>45047</v>
       </c>
-      <c r="B590" s="20"/>
-      <c r="C590" s="13"/>
+      <c r="B590" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H590" s="39"/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H590" s="39">
+        <v>1</v>
+      </c>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="20"/>
+      <c r="K590" s="57">
+        <v>45072</v>
+      </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>45078</v>
       </c>
-      <c r="B591" s="20"/>
+      <c r="B591" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
       <c r="E591" s="9"/>
@@ -15737,10 +15747,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H591" s="39"/>
+      <c r="H591" s="39">
+        <v>1</v>
+      </c>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
+      <c r="K591" s="57">
+        <v>45082</v>
+      </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
@@ -18227,7 +18241,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>355.69530000000009</v>
+        <v>356.19530000000009</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
